--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1569065.498590501</v>
+        <v>-1571015.724419061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>534767.6497558262</v>
+        <v>185914.0188873638</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>36.77550900004747</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>92.31677307014274</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>264.9746104352212</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.91242278797853</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>207.7876106634625</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4480369638798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.82811972447731</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>65.24532081664537</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>288.7744660412548</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.67129869336543</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.35153719005481</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.9497581783747</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>176.8688121773833</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="C16" t="n">
-        <v>85.42291167995823</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>123.6425901698864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>202.4420839239435</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.817599124172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>66.90445977359197</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.3906411125612</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2725,13 +2725,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373615</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373615</v>
       </c>
       <c r="H31" t="n">
         <v>80.78193823789549</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941874</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898711</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857163</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692845</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329052</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373686</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1563.476704221264</v>
+        <v>874.0986241714319</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.514187280852</v>
+        <v>874.0986241714319</v>
       </c>
       <c r="D2" t="n">
-        <v>836.2484886741015</v>
+        <v>874.0986241714319</v>
       </c>
       <c r="E2" t="n">
-        <v>836.2484886741015</v>
+        <v>488.3103715731876</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>488.3103715731876</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>474.3869675117786</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>147.1922475477814</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1260.698464235554</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.476704221264</v>
+        <v>1260.698464235554</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>712.0558298751428</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380756</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380756</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1941.051881282062</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.91254930625</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>363.7239216122612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>215.810828029868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>68.92088053195769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>68.92088053195769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>68.92088053195769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>68.92088053195769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781315</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
         <v>478.8522906713811</v>
@@ -4790,7 +4790,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2576.216037087458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2322.454251725549</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.454251725549</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.685596455435</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.219838194355</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1206.080506218543</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.77257646012751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>69.77257646012751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>69.77257646012751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>69.77257646012751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.77257646012751</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>280.6570073165065</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733951</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1542.291338536857</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119723</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1254.558583101163</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T13" t="n">
-        <v>1254.558583101163</v>
+        <v>1075.210845262959</v>
       </c>
       <c r="U13" t="n">
-        <v>1254.558583101163</v>
+        <v>786.0822064765173</v>
       </c>
       <c r="V13" t="n">
-        <v>1254.558583101163</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>965.1414130642022</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>965.1414130642022</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.3488339206721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N15" t="n">
-        <v>1953.181607381369</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.935021465331</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>275.872457296028</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>1068.657799551446</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.128242957076</v>
+        <v>1837.025945943907</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.648898594694</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O18" t="n">
-        <v>1916.402312678656</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.702934414403</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
         <v>395.2468244550147</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1262.94966189762</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>973.8210231111786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>973.8210231111786</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>973.8210231111786</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="X19" t="n">
-        <v>745.8314722131613</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>395.9961833785279</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>1009.893253135417</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.1598612984388</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227918</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>874.9271131227918</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.8083261286786</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,22 +5972,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514081</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.325632214049</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>2030.299435654558</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.5728295347034</v>
+        <v>164.7973538578535</v>
       </c>
       <c r="C25" t="n">
-        <v>496.6366466067965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>346.5200071944607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>346.5200071944607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>1075.21084526296</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X25" t="n">
-        <v>847.2212943649431</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.2212943649431</v>
+        <v>164.7973538578535</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>2030.299435654558</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N27" t="n">
-        <v>2374.820091292176</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6373,10 +6373,10 @@
         <v>320.8847398504505</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899877</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.963989254138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G31" t="n">
         <v>221.529509210313</v>
@@ -6616,13 +6616,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6695,19 +6695,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527472</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2493.466724549913</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2002.182261163389</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2002.182261163389</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2522.482882899137</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>194.0700364812131</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>424.0331423495622</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>392.1092948465199</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,25 +9483,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>425.3769056810785</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>254.6580121910221</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7770816282974</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11142,16 +11142,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>235.6726965712552</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>370.100536741664</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>59.6145431747185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.36078253109383</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.38755472071689</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.21032716693578</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>65.97105180522854</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>75.26883114644474</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.963168004552614</v>
       </c>
       <c r="C16" t="n">
-        <v>81.8239094186696</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>97.9049708885028</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>84.08091441264753</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.76705422792276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>100.3423613250359</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>9.03040691037009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>8.100187187665142e-13</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1290395.897134439</v>
+        <v>1290395.89713444</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016743</v>
+        <v>77466.06243016744</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>78205.81194754172</v>
+        <v>78205.81194754173</v>
       </c>
       <c r="F2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754178</v>
       </c>
       <c r="G2" t="n">
         <v>78205.81194754176</v>
       </c>
       <c r="H2" t="n">
-        <v>78205.81194754175</v>
+        <v>78205.81194754181</v>
       </c>
       <c r="I2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754179</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642849</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642849</v>
+        <v>82104.1769864285</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642849</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642844</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642846</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642843</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>54505.51210371246</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759104</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759302</v>
-      </c>
       <c r="J4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="K4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.5809318964</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189638</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707947.2032141333</v>
+        <v>-708063.1560780396</v>
       </c>
       <c r="C6" t="n">
         <v>-139814.0402576002</v>
@@ -26528,40 +26528,40 @@
         <v>-139814.0402576003</v>
       </c>
       <c r="E6" t="n">
-        <v>-539729.3441686468</v>
+        <v>-539826.8032946191</v>
       </c>
       <c r="F6" t="n">
-        <v>-14569.30769175077</v>
+        <v>-14666.76681772289</v>
       </c>
       <c r="G6" t="n">
-        <v>-14569.30769175074</v>
+        <v>-14666.76681772289</v>
       </c>
       <c r="H6" t="n">
-        <v>-14569.30769175074</v>
+        <v>-14666.76681772285</v>
       </c>
       <c r="I6" t="n">
-        <v>-14569.30769175082</v>
+        <v>-14666.76681772288</v>
       </c>
       <c r="J6" t="n">
-        <v>-269746.2410617986</v>
+        <v>-269746.2410617989</v>
       </c>
       <c r="K6" t="n">
-        <v>-38817.50976549326</v>
+        <v>-38817.50976549322</v>
       </c>
       <c r="L6" t="n">
-        <v>-38817.50976549323</v>
+        <v>-38817.50976549341</v>
       </c>
       <c r="M6" t="n">
-        <v>-173618.5249993305</v>
+        <v>-173618.5249993307</v>
       </c>
       <c r="N6" t="n">
-        <v>-38817.50976549334</v>
+        <v>-38817.50976549347</v>
       </c>
       <c r="O6" t="n">
-        <v>-93323.02186920578</v>
+        <v>-93323.02186920575</v>
       </c>
       <c r="P6" t="n">
-        <v>-38817.50976549329</v>
+        <v>-38817.50976549339</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964064</v>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>68.13189012964058</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>104.7564902432479</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7833341210783</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>174.9462310000181</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2830637145893</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>30.37183946405969</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>151.2029995410124</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>60.46650267615826</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>129.7497493295658</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.7861061337732</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31367,10 +31367,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>58.66904626099313</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31853,22 +31853,22 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>234.5490509181242</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32093,7 +32093,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>241.4090972701575</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,16 +32312,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>165.9253850767028</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32330,19 +32330,19 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.6626388367732</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>175.1732645054593</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32561,19 +32561,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,19 +32786,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>425.8974584957647</v>
+        <v>279.0818020779483</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32810,13 +32810,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>425.8974584957645</v>
+        <v>10.78379835447038</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33263,19 +33263,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>340.85460907735</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33284,7 +33284,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33503,19 +33503,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>186.386518625789</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -33746,10 +33746,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>340.8546090773502</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,7 +33758,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>183.8504064050094</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>21.27884026906271</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946992</v>
@@ -34460,7 +34460,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>185.2928442992127</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35501,16 +35501,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>485.8151257504093</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789711</v>
       </c>
       <c r="N13" t="n">
-        <v>273.276877805599</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35738,13 +35738,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>249.5130504020755</v>
       </c>
       <c r="P15" t="n">
-        <v>425.8974584957645</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>398.2113506002878</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -35978,13 +35978,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.7581524866008</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>301.7970625436789</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>749.4684883237463</v>
+        <v>602.6528319059299</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>749.4684883237461</v>
+        <v>334.354828182452</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>294.0351935977452</v>
       </c>
       <c r="O30" t="n">
-        <v>592.1206839096351</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>437.6525934580741</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>120.6836047766919</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.2227018484232</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>592.1206839096353</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>416.1363719285944</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>91.37435391889029</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>97.83125759689618</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
